--- a/GradeDistributionsDB/Summer2015/Output/Summer2015 MD.xlsx
+++ b/GradeDistributionsDB/Summer2015/Output/Summer2015 MD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>Course</t>
   </si>
@@ -43,19 +43,13 @@
     <t>HCPI-557</t>
   </si>
   <si>
-    <t>DEPARTMENT T</t>
+    <t>MUZZIN K</t>
   </si>
   <si>
     <t>100.00%</t>
   </si>
   <si>
     <t>0.00%</t>
-  </si>
-  <si>
-    <t>MUZZIN K</t>
-  </si>
-  <si>
-    <t>COLLEGE T</t>
   </si>
 </sst>
 </file>
@@ -392,7 +386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,52 +448,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/GradeDistributionsDB/Summer2015/Output/Summer2015 MD.xlsx
+++ b/GradeDistributionsDB/Summer2015/Output/Summer2015 MD.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>Course</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>% of F's</t>
+  </si>
+  <si>
+    <t>% of Q Drop's</t>
   </si>
   <si>
     <t>HCPI-557</t>
@@ -87,12 +90,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -386,15 +388,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,33 +421,39 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
